--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>0.2988153962365</v>
+        <v>0.4146039334103333</v>
       </c>
       <c r="R2">
-        <v>1.792892377419</v>
+        <v>2.487623600462</v>
       </c>
       <c r="S2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="T2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
         <v>0.7364617823578888</v>
@@ -641,10 +641,10 @@
         <v>6.628156041221</v>
       </c>
       <c r="S3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="T3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>0.1658584622933333</v>
+        <v>0.2365227101856666</v>
       </c>
       <c r="R4">
-        <v>1.49272616064</v>
+        <v>2.128704391671</v>
       </c>
       <c r="S4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="T4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>0.4881478332683333</v>
+        <v>0.2481080371531667</v>
       </c>
       <c r="R5">
-        <v>2.92888699961</v>
+        <v>1.488648222919</v>
       </c>
       <c r="S5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="T5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>0.2955201010825555</v>
+        <v>0.1056417724107778</v>
       </c>
       <c r="R6">
-        <v>2.659680909743</v>
+        <v>0.9507759516969999</v>
       </c>
       <c r="S6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="T6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>0.1698808124187778</v>
+        <v>0.1177067429156667</v>
       </c>
       <c r="R7">
-        <v>1.528927311769</v>
+        <v>1.059360686241</v>
       </c>
       <c r="S7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="T7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
     </row>
   </sheetData>
